--- a/pics_to_discuss/bxyl_pics/bxyl-LM_gibbs_group_RMSD.xlsx
+++ b/pics_to_discuss/bxyl_pics/bxyl-LM_gibbs_group_RMSD.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Desktop\pics_to_discuss\bxyl_pics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Desktop\Winter 2017\Research\codes\python\qm_utils\pucker_prog_data\pics_to_discuss\bxyl_pics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bxyl-LM_gibbs_group_RMSD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
   <si>
-    <t>pucker</t>
+    <t>method</t>
   </si>
   <si>
     <t>REFERENCE</t>
@@ -1808,7 +1808,7 @@
         <v>1.77321</v>
       </c>
       <c r="E16" s="3">
-        <v>1.38026</v>
+        <v>1.3804099999999999</v>
       </c>
       <c r="F16" s="3">
         <v>1.6395900000000001</v>
@@ -2269,7 +2269,7 @@
         <v>9</v>
       </c>
       <c r="P5" s="10">
-        <v>1.38026</v>
+        <v>1.3804099999999999</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
